--- a/Integrador/LOPAL-ProjetoIntegrador-Esp8266_Receiver.xlsx
+++ b/Integrador/LOPAL-ProjetoIntegrador-Esp8266_Receiver.xlsx
@@ -675,7 +675,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45816</v>
+        <v>45830</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
